--- a/湖北_city.xlsx
+++ b/湖北_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,20 +384,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>conadd</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hejian</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mapName</t>
         </is>
@@ -413,23 +423,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37945</v>
+        <v>36594</v>
       </c>
       <c r="D2" t="n">
-        <v>44412</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4970</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1497</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>45660</v>
+      </c>
+      <c r="E2" t="n">
+        <v>314</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7292</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1774</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>武汉市</t>
         </is>
@@ -445,23 +459,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2690</v>
+        <v>2414</v>
       </c>
       <c r="D3" t="n">
-        <v>3344</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>572</v>
-      </c>
-      <c r="G3" t="n">
-        <v>82</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>3429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>917</v>
+      </c>
+      <c r="I3" t="n">
+        <v>98</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>孝感市</t>
         </is>
@@ -477,23 +495,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1700</v>
+        <v>1396</v>
       </c>
       <c r="D4" t="n">
-        <v>2844</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>2899</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1408</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>黄冈市</t>
         </is>
@@ -505,29 +527,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>荆州</t>
+          <t>鄂州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1094</v>
+        <v>950</v>
       </c>
       <c r="D5" t="n">
-        <v>1541</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>409</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>荆州市</t>
+        <v>1375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>386</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>鄂州市</t>
         </is>
       </c>
     </row>
@@ -537,29 +563,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鄂州</t>
+          <t>荆州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1005</v>
+        <v>914</v>
       </c>
       <c r="D6" t="n">
-        <v>1343</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>301</v>
-      </c>
-      <c r="G6" t="n">
-        <v>37</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>鄂州市</t>
+        <v>1566</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>612</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>荆州市</t>
         </is>
       </c>
     </row>
@@ -573,23 +603,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>824</v>
       </c>
       <c r="D7" t="n">
-        <v>1280</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>254</v>
-      </c>
-      <c r="G7" t="n">
-        <v>26</v>
-      </c>
-      <c r="H7" t="inlineStr">
+        <v>1296</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>443</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>随州市</t>
         </is>
@@ -605,23 +639,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>913</v>
+        <v>745</v>
       </c>
       <c r="D8" t="n">
-        <v>1165</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>230</v>
-      </c>
-      <c r="G8" t="n">
-        <v>22</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>1173</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>402</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>襄阳市</t>
         </is>
@@ -633,29 +671,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>荆门</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>687</v>
+        <v>612</v>
       </c>
       <c r="D9" t="n">
-        <v>901</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>181</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>荆门市</t>
+        <v>914</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>273</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>宜昌市</t>
         </is>
       </c>
     </row>
@@ -665,29 +707,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>荆门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="D10" t="n">
-        <v>907</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>208</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>宜昌市</t>
+        <v>914</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>296</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>荆门市</t>
         </is>
       </c>
     </row>
@@ -701,23 +747,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>674</v>
+        <v>536</v>
       </c>
       <c r="D11" t="n">
-        <v>983</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>284</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>433</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>黄石市</t>
         </is>
@@ -733,23 +783,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>597</v>
+        <v>462</v>
       </c>
       <c r="D12" t="n">
-        <v>832</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>225</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" t="inlineStr">
+        <v>836</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>363</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>咸宁市</t>
         </is>
@@ -765,23 +819,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="D13" t="n">
-        <v>638</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>164</v>
-      </c>
-      <c r="G13" t="n">
+        <v>659</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>239</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>十堰市</t>
         </is>
@@ -793,29 +851,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>天门</t>
+          <t>仙桃</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>73</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>天门市</t>
+        <v>571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>231</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>仙桃市</t>
         </is>
       </c>
     </row>
@@ -825,29 +887,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>仙桃</t>
+          <t>天门</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="D15" t="n">
-        <v>562</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>149</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>仙桃市</t>
+        <v>493</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>198</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>天门市</t>
         </is>
       </c>
     </row>
@@ -857,31 +923,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>恩施州</t>
+          <t>监狱系统</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D16" t="n">
-        <v>249</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>96</v>
-      </c>
-      <c r="G16" t="n">
+        <v>221</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>恩施土家族苗族自治州</t>
-        </is>
-      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -889,29 +955,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>潜江</t>
+          <t>恩施州</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D17" t="n">
-        <v>185</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>潜江市</t>
+        <v>251</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>117</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>恩施土家族苗族自治州</t>
         </is>
       </c>
     </row>
@@ -921,27 +991,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>潜江</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>114</v>
+      </c>
+      <c r="D18" t="n">
+        <v>189</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>67</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>潜江市</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>神农架林区</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>神农架林区</t>
         </is>

--- a/湖北_city.xlsx
+++ b/湖北_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +412,11 @@
           <t>mapName</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citycode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -423,13 +428,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36594</v>
+        <v>28731</v>
       </c>
       <c r="D2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E2" t="n">
-        <v>314</v>
+        <v>48557</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -438,14 +445,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7292</v>
+        <v>17657</v>
       </c>
       <c r="I2" t="n">
-        <v>1774</v>
+        <v>2169</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>武汉市</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CN42010000000000</t>
         </is>
       </c>
     </row>
@@ -459,13 +471,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2414</v>
+        <v>1356</v>
       </c>
       <c r="D3" t="n">
-        <v>3429</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
+        <v>3518</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -474,14 +488,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>917</v>
+        <v>2047</v>
       </c>
       <c r="I3" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>孝感市</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CN42090000000000</t>
         </is>
       </c>
     </row>
@@ -495,13 +514,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1396</v>
+        <v>670</v>
       </c>
       <c r="D4" t="n">
-        <v>2899</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16</v>
+        <v>2904</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -510,14 +531,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1408</v>
+        <v>2119</v>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>黄冈市</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CN42110000000000</t>
         </is>
       </c>
     </row>
@@ -531,13 +557,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>950</v>
+        <v>599</v>
       </c>
       <c r="D5" t="n">
-        <v>1375</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+        <v>1390</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -546,14 +574,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>386</v>
+        <v>747</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>鄂州市</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CN42070000000000</t>
         </is>
       </c>
     </row>
@@ -567,13 +600,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>914</v>
+        <v>568</v>
       </c>
       <c r="D6" t="n">
-        <v>1566</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
+        <v>1579</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -582,14 +617,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>612</v>
+        <v>965</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>荆州市</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CN42100000000000</t>
         </is>
       </c>
     </row>
@@ -603,13 +643,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>824</v>
+        <v>470</v>
       </c>
       <c r="D7" t="n">
-        <v>1296</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
+        <v>1307</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -618,14 +660,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>443</v>
+        <v>797</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>随州市</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CN42130000000000</t>
         </is>
       </c>
     </row>
@@ -635,17 +682,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>襄阳</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>745</v>
+        <v>437</v>
       </c>
       <c r="D8" t="n">
-        <v>1173</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
+        <v>931</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
@@ -654,14 +703,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>襄阳市</t>
+          <t>宜昌市</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CN42050000000000</t>
         </is>
       </c>
     </row>
@@ -671,17 +725,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>襄阳</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>612</v>
+        <v>340</v>
       </c>
       <c r="D9" t="n">
-        <v>914</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+        <v>1175</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -690,14 +746,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>273</v>
+        <v>802</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>襄阳市</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CN42060000000000</t>
         </is>
       </c>
     </row>
@@ -711,13 +772,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>581</v>
+        <v>324</v>
       </c>
       <c r="D10" t="n">
-        <v>914</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
+        <v>924</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -726,7 +789,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>296</v>
+        <v>563</v>
       </c>
       <c r="I10" t="n">
         <v>37</v>
@@ -734,6 +797,11 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>荆门市</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CN42080000000000</t>
         </is>
       </c>
     </row>
@@ -747,13 +815,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>536</v>
+        <v>291</v>
       </c>
       <c r="D11" t="n">
-        <v>997</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
+        <v>1013</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -762,14 +832,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>433</v>
+        <v>688</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>黄石市</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CN42020000000000</t>
         </is>
       </c>
     </row>
@@ -779,17 +854,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>咸宁</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>462</v>
+        <v>243</v>
       </c>
       <c r="D12" t="n">
-        <v>836</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
+        <v>671</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
@@ -798,14 +875,19 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>咸宁市</t>
+          <t>十堰市</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CN42030000000000</t>
         </is>
       </c>
     </row>
@@ -815,17 +897,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>咸宁</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>418</v>
+        <v>148</v>
       </c>
       <c r="D13" t="n">
-        <v>659</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
+        <v>836</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
@@ -834,14 +918,19 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>239</v>
+        <v>677</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>十堰市</t>
+          <t>咸宁市</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CN42120000000000</t>
         </is>
       </c>
     </row>
@@ -855,13 +944,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="D14" t="n">
-        <v>571</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
+        <v>575</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
@@ -870,7 +961,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="I14" t="n">
         <v>19</v>
@@ -878,6 +969,11 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>仙桃市</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CN42900400000000</t>
         </is>
       </c>
     </row>
@@ -891,13 +987,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="D15" t="n">
-        <v>493</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+        <v>496</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
@@ -906,14 +1004,19 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>天门市</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>CN42900600000000</t>
         </is>
       </c>
     </row>
@@ -923,17 +1026,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>监狱系统</t>
+          <t>潜江</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>221</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
@@ -942,12 +1047,21 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>潜江市</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>CN42900500000000</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,13 +1073,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>251</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
@@ -974,14 +1090,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>恩施土家族苗族自治州</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>CN42280000000000</t>
         </is>
       </c>
     </row>
@@ -991,17 +1112,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>潜江</t>
+          <t>神农架林区</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>189</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
@@ -1010,50 +1133,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>潜江市</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>神农架林区</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>神农架林区</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CN42902100000000</t>
         </is>
       </c>
     </row>

--- a/湖北_city.xlsx
+++ b/湖北_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,32 +389,47 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>conadd_str</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hejian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>mapName</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>citycode</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>jwsr</t>
         </is>
       </c>
     </row>
@@ -428,38 +443,49 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28731</v>
+        <v>9911</v>
       </c>
       <c r="D2" t="n">
-        <v>48557</v>
+        <v>49999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>17657</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>2169</v>
-      </c>
-      <c r="J2" t="inlineStr">
+        <v>37632</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2456</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>武汉市</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>CN42010000000000</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,38 +497,49 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1356</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
         <v>3518</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2047</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>115</v>
-      </c>
-      <c r="J3" t="inlineStr">
+        <v>3253</v>
+      </c>
+      <c r="J3" t="n">
+        <v>126</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>孝感市</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>CN42090000000000</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,42 +547,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>鄂州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>670</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>2904</v>
+        <v>1394</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2119</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>115</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>黄冈市</t>
-        </is>
+        <v>1272</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CN42110000000000</t>
-        </is>
-      </c>
+          <t>鄂州市</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CN42070000000000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,42 +601,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>鄂州</t>
+          <t>随州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>599</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>1390</v>
+        <v>1307</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>747</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>鄂州市</t>
-        </is>
+        <v>1213</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CN42070000000000</t>
-        </is>
-      </c>
+          <t>随州市</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CN42130000000000</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,38 +659,49 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>568</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>965</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
-      </c>
-      <c r="J6" t="inlineStr">
+        <v>1483</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>荆州市</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>CN42100000000000</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,42 +709,53 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>随州</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>1307</v>
+        <v>2907</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>797</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>随州市</t>
-        </is>
+        <v>2738</v>
+      </c>
+      <c r="J7" t="n">
+        <v>125</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CN42130000000000</t>
-        </is>
-      </c>
+          <t>黄冈市</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CN42110000000000</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,42 +763,53 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>437</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>931</v>
+        <v>672</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>463</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>宜昌市</t>
-        </is>
+        <v>630</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CN42050000000000</t>
-        </is>
-      </c>
+          <t>十堰市</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CN42030000000000</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -725,42 +817,53 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>襄阳</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>1175</v>
+        <v>931</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>802</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>襄阳市</t>
-        </is>
+        <v>864</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CN42060000000000</t>
-        </is>
-      </c>
+          <t>宜昌市</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CN42050000000000</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,42 +871,53 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>荆门</t>
+          <t>黄石</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>924</v>
+        <v>1015</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>563</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>荆门市</t>
-        </is>
+        <v>948</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CN42080000000000</t>
-        </is>
-      </c>
+          <t>黄石市</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CN42020000000000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -811,42 +925,53 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>黄石</t>
+          <t>仙桃</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>1013</v>
+        <v>575</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>688</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>黄石市</t>
-        </is>
+        <v>526</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CN42020000000000</t>
-        </is>
-      </c>
+          <t>仙桃市</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CN42900400000000</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,42 +979,53 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>荆门</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>671</v>
+        <v>928</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>421</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>十堰市</t>
-        </is>
+        <v>864</v>
+      </c>
+      <c r="J12" t="n">
+        <v>39</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CN42030000000000</t>
-        </is>
-      </c>
+          <t>荆门市</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CN42080000000000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,42 +1033,53 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>咸宁</t>
+          <t>襄阳</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>836</v>
+        <v>1175</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>677</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>咸宁市</t>
-        </is>
+        <v>1125</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CN42120000000000</t>
-        </is>
-      </c>
+          <t>襄阳市</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CN42060000000000</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,42 +1087,53 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>仙桃</t>
+          <t>潜江</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>575</v>
+        <v>198</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>408</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>仙桃市</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CN42900400000000</t>
-        </is>
-      </c>
+          <t>潜江市</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CN42900500000000</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,42 +1141,53 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>天门</t>
+          <t>恩施州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>496</v>
+        <v>252</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>362</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>天门市</t>
-        </is>
+        <v>241</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CN42900600000000</t>
-        </is>
-      </c>
+          <t>恩施土家族苗族自治州</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CN42280000000000</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,42 +1195,53 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>潜江</t>
+          <t>天门</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>107</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>潜江市</t>
-        </is>
+        <v>477</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CN42900500000000</t>
-        </is>
-      </c>
+          <t>天门市</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CN42900600000000</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1069,42 +1249,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>恩施州</t>
+          <t>咸宁</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>252</v>
+        <v>836</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>181</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>恩施土家族苗族自治州</t>
-        </is>
+        <v>819</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CN42280000000000</t>
-        </is>
-      </c>
+          <t>咸宁市</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CN42120000000000</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,7 +1307,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>11</v>
@@ -1126,28 +1317,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>神农架林区</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>CN42902100000000</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
